--- a/EXELS/RegistraDOC.xlsx
+++ b/EXELS/RegistraDOC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales\EXELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200FFCD0-EA46-4AB3-912F-45DC9E281276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53444EBD-5DD3-401E-855D-54208FE8489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Academia</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Numero de Control</t>
   </si>
   <si>
-    <t>ISC</t>
-  </si>
-  <si>
-    <t>IEM</t>
-  </si>
-  <si>
-    <t>GUFTF</t>
-  </si>
-  <si>
     <t>Nombre del Docente</t>
   </si>
   <si>
@@ -76,13 +67,52 @@
   </si>
   <si>
     <t>Maria Jose</t>
+  </si>
+  <si>
+    <t>doc23005</t>
+  </si>
+  <si>
+    <t>doc23006</t>
+  </si>
+  <si>
+    <t>doc23007</t>
+  </si>
+  <si>
+    <t>doc23008</t>
+  </si>
+  <si>
+    <t>Jose Jose</t>
+  </si>
+  <si>
+    <t>Jacinto Lopez</t>
+  </si>
+  <si>
+    <t>Patricio Ortiz</t>
+  </si>
+  <si>
+    <t>Maria de la O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería en Sistemas Computacionales </t>
+  </si>
+  <si>
+    <t>Ingeniería en Electromecánica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería Industrial </t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>mikunaka123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,14 +167,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,20 +494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA5109-4B52-4F7B-A729-6A6FE5ACD800}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,61 +516,133 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6:D9" r:id="rId1" display="mikunaka123@gmail.com" xr:uid="{FD2D4CE5-9B5D-4037-96FB-63E039DC0CB7}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{81600237-2FCE-4CCF-8EA1-862D8A499DF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>